--- a/Figure5/top14_subvariants_v25data.xlsx
+++ b/Figure5/top14_subvariants_v25data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Variant_Name_New_Cut</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.1.529 (BA.2.75)+F490S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.529 (BA.2.75.2)</t>
   </si>
   <si>
     <t xml:space="preserve">Omicron BA.4/5</t>
@@ -483,111 +480,100 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>209</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>233</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
         <v>79</v>
       </c>
     </row>

--- a/Figure5/top14_subvariants_v25data.xlsx
+++ b/Figure5/top14_subvariants_v25data.xlsx
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
